--- a/sliding_window.xlsx
+++ b/sliding_window.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260969B1-A142-4CFD-AD8A-9C455126D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E57423-601F-441C-B8AB-AFDEC8D2F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="Prob1" sheetId="2" r:id="rId2"/>
+    <sheet name="Pro2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Housing</t>
   </si>
@@ -36,12 +37,2443 @@
   <si>
     <t>String Window</t>
   </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lengthOfLongestSubstring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Sliding Window(O(n)</t>
+  </si>
+  <si>
+    <t>recursive(2^N)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(idx,count)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(ls,count,maxCount,Math.max(maxCount,count))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>maxCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LSG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,8 +2481,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +2558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,9 +2580,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,6 +3428,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>572359</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>181638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7024910-CEEC-B4F4-7907-09E2A42D0350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="0"/>
+          <a:ext cx="6154009" cy="4753638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1197,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C440EEA-0A6B-4011-A6FC-724E75F4A316}">
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
@@ -1222,4 +3782,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F450BC5-6460-4634-8235-47DEF16A1C4E}">
+  <dimension ref="A26:R58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:I58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="L30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="L31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="L32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="L33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="L34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="L35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="L36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="L37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="L38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="L39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="L40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="L41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="L42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="L43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="L44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="L45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="L46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="L47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="L48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="L49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="L50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="L51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="L52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="L53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="L54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>